--- a/public/files/E5.xlsx
+++ b/public/files/E5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29423"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/78b78f4f98ac343c/Documents/BTS/BTS 22-24/BTS SIO 22-24/circulaire examen/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/816af1763e0e13c3/Documents/GitHub/SIO-portfolio/public/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65C812A6-46C3-4BE6-AE5E-9BDE3627C97F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="8_{65C812A6-46C3-4BE6-AE5E-9BDE3627C97F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17685313-E304-47B6-B49C-3120CBF1041A}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="5753" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau de synthèse Épreuve E4" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
   <si>
     <t>BTS SERVICES INFORMATIQUES AUX ORGANISATIONS</t>
   </si>
@@ -156,6 +156,33 @@
   </si>
   <si>
     <t>Réalisations en milieu professionnel en cours de seconde année</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Projet Collectus</t>
+  </si>
+  <si>
+    <t>Création d'un jeu vidéo de Sensibilisation Cyber</t>
+  </si>
+  <si>
+    <t>Du 09/04/2025 Au 31/07/2026</t>
+  </si>
+  <si>
+    <t>Du 13/06/2025 Au 01/07/2025</t>
+  </si>
+  <si>
+    <t>Gestion de bug sur la plateforme Owlcub</t>
+  </si>
+  <si>
+    <t>Gestion de bug sur la plateforme Owlcub V2</t>
+  </si>
+  <si>
+    <t>Du 17/03/2025 Au 20/08/2025</t>
+  </si>
+  <si>
+    <t>Du 05/09/2025 Au 17/10/2025</t>
   </si>
 </sst>
 </file>
@@ -165,7 +192,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -223,23 +250,17 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="16"/>
+      <sz val="28"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="39">
@@ -751,7 +772,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -792,18 +813,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -819,101 +828,110 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1296,100 +1314,100 @@
   </sheetPr>
   <dimension ref="A1:AQ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="70.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" style="1" customWidth="1"/>
     <col min="3" max="8" width="18.7109375" style="1" customWidth="1"/>
     <col min="9" max="43" width="11.42578125" customWidth="1"/>
     <col min="44" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="39.950000000000003" customHeight="1">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="33"/>
-    </row>
-    <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1">
-      <c r="A2" s="33" t="s">
+      <c r="H1" s="22"/>
+    </row>
+    <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-    </row>
-    <row r="3" spans="1:43" ht="39.950000000000003" customHeight="1">
-      <c r="A3" s="47" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+    </row>
+    <row r="3" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="53" t="s">
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="48"/>
-      <c r="H3" s="54"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="30"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:43" ht="39.950000000000003" customHeight="1">
-      <c r="A4" s="50" t="s">
+    <row r="4" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="52"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="28"/>
       <c r="F4" s="12" t="s">
         <v>6</v>
       </c>
       <c r="G4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:43" ht="39.950000000000003" customHeight="1">
-      <c r="A5" s="43" t="s">
+    <row r="5" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="46"/>
-    </row>
-    <row r="6" spans="1:43" ht="90" customHeight="1">
+      <c r="B5" s="43"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="45"/>
+    </row>
+    <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="20" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="6" t="s">
@@ -1408,25 +1426,25 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:43" s="2" customFormat="1" ht="324.95" customHeight="1">
+    <row r="7" spans="1:43" s="2" customFormat="1" ht="324.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="32"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="27" t="s">
+      <c r="B7" s="41"/>
+      <c r="C7" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="20" t="s">
+      <c r="H7" s="16" t="s">
         <v>23</v>
       </c>
       <c r="I7"/>
@@ -1465,17 +1483,17 @@
       <c r="AP7"/>
       <c r="AQ7"/>
     </row>
-    <row r="8" spans="1:43" s="2" customFormat="1" ht="18">
-      <c r="A8" s="34" t="s">
+    <row r="8" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="37"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="36"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1512,19 +1530,25 @@
       <c r="AP8"/>
       <c r="AQ8"/>
     </row>
-    <row r="9" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="9" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="30"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="46"/>
+      <c r="H9" s="48" t="s">
+        <v>33</v>
+      </c>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
@@ -1561,19 +1585,23 @@
       <c r="AP9"/>
       <c r="AQ9"/>
     </row>
-    <row r="10" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A10" s="21" t="s">
+    <row r="10" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="17" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="15"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="51"/>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
@@ -1610,15 +1638,25 @@
       <c r="AP10"/>
       <c r="AQ10"/>
     </row>
-    <row r="11" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A11" s="9"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="15"/>
+    <row r="11" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="49"/>
+      <c r="H11" s="51" t="s">
+        <v>33</v>
+      </c>
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
@@ -1655,15 +1693,15 @@
       <c r="AP11"/>
       <c r="AQ11"/>
     </row>
-    <row r="12" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="12" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="8"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="15"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="51"/>
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
@@ -1700,15 +1738,15 @@
       <c r="AP12"/>
       <c r="AQ12"/>
     </row>
-    <row r="13" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="13" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="8"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="15"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="51"/>
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13"/>
@@ -1745,15 +1783,15 @@
       <c r="AP13"/>
       <c r="AQ13"/>
     </row>
-    <row r="14" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="14" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="8"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="15"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="51"/>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
@@ -1790,15 +1828,15 @@
       <c r="AP14"/>
       <c r="AQ14"/>
     </row>
-    <row r="15" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="15" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="8"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="15"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="51"/>
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15"/>
@@ -1835,15 +1873,15 @@
       <c r="AP15"/>
       <c r="AQ15"/>
     </row>
-    <row r="16" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="16" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="8"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="15"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="51"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
@@ -1880,15 +1918,15 @@
       <c r="AP16"/>
       <c r="AQ16"/>
     </row>
-    <row r="17" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="17" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="8"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="15"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="51"/>
       <c r="I17"/>
       <c r="J17"/>
       <c r="K17"/>
@@ -1925,15 +1963,15 @@
       <c r="AP17"/>
       <c r="AQ17"/>
     </row>
-    <row r="18" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="18" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9"/>
       <c r="B18" s="8"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="15"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="51"/>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
@@ -1970,17 +2008,17 @@
       <c r="AP18"/>
       <c r="AQ18"/>
     </row>
-    <row r="19" spans="1:43" s="2" customFormat="1" ht="17.649999999999999">
-      <c r="A19" s="38" t="s">
+    <row r="19" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A19" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="40"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="39"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -2017,19 +2055,23 @@
       <c r="AP19"/>
       <c r="AQ19"/>
     </row>
-    <row r="20" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="20" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
         <v>30</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="15"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="51"/>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
@@ -2066,15 +2108,19 @@
       <c r="AP20"/>
       <c r="AQ20"/>
     </row>
-    <row r="21" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A21" s="9"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="15"/>
+    <row r="21" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="51"/>
       <c r="I21"/>
       <c r="J21"/>
       <c r="K21"/>
@@ -2111,15 +2157,23 @@
       <c r="AP21"/>
       <c r="AQ21"/>
     </row>
-    <row r="22" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A22" s="9"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="15"/>
+    <row r="22" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="49"/>
+      <c r="H22" s="51"/>
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22"/>
@@ -2156,15 +2210,15 @@
       <c r="AP22"/>
       <c r="AQ22"/>
     </row>
-    <row r="23" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="23" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="9"/>
       <c r="B23" s="8"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="15"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="51"/>
       <c r="I23"/>
       <c r="J23"/>
       <c r="K23"/>
@@ -2201,15 +2255,15 @@
       <c r="AP23"/>
       <c r="AQ23"/>
     </row>
-    <row r="24" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="24" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="9"/>
       <c r="B24" s="8"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="15"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="51"/>
       <c r="I24"/>
       <c r="J24"/>
       <c r="K24"/>
@@ -2246,15 +2300,15 @@
       <c r="AP24"/>
       <c r="AQ24"/>
     </row>
-    <row r="25" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="25" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="9"/>
       <c r="B25" s="8"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="15"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="51"/>
       <c r="I25"/>
       <c r="J25"/>
       <c r="K25"/>
@@ -2291,15 +2345,15 @@
       <c r="AP25"/>
       <c r="AQ25"/>
     </row>
-    <row r="26" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="26" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="9"/>
       <c r="B26" s="8"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="15"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="51"/>
       <c r="I26"/>
       <c r="J26"/>
       <c r="K26"/>
@@ -2336,17 +2390,17 @@
       <c r="AP26"/>
       <c r="AQ26"/>
     </row>
-    <row r="27" spans="1:43" s="2" customFormat="1" ht="17.649999999999999">
-      <c r="A27" s="38" t="s">
+    <row r="27" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A27" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="40"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="39"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2383,15 +2437,23 @@
       <c r="AP27"/>
       <c r="AQ27"/>
     </row>
-    <row r="28" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A28" s="9"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="15"/>
+    <row r="28" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="G28" s="49"/>
+      <c r="H28" s="51"/>
       <c r="I28"/>
       <c r="J28"/>
       <c r="K28"/>
@@ -2428,15 +2490,15 @@
       <c r="AP28"/>
       <c r="AQ28"/>
     </row>
-    <row r="29" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="29" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="9"/>
       <c r="B29" s="8"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="15"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="51"/>
       <c r="I29"/>
       <c r="J29"/>
       <c r="K29"/>
@@ -2473,15 +2535,15 @@
       <c r="AP29"/>
       <c r="AQ29"/>
     </row>
-    <row r="30" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="30" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="9"/>
       <c r="B30" s="8"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="15"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="51"/>
       <c r="I30"/>
       <c r="J30"/>
       <c r="K30"/>
@@ -2518,15 +2580,15 @@
       <c r="AP30"/>
       <c r="AQ30"/>
     </row>
-    <row r="31" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="31" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="9"/>
       <c r="B31" s="8"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="15"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="51"/>
       <c r="I31"/>
       <c r="J31"/>
       <c r="K31"/>
@@ -2563,15 +2625,15 @@
       <c r="AP31"/>
       <c r="AQ31"/>
     </row>
-    <row r="32" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="32" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="9"/>
       <c r="B32" s="8"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="15"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="51"/>
       <c r="I32"/>
       <c r="J32"/>
       <c r="K32"/>
@@ -2608,15 +2670,15 @@
       <c r="AP32"/>
       <c r="AQ32"/>
     </row>
-    <row r="33" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="33" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="9"/>
       <c r="B33" s="8"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="15"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="51"/>
       <c r="I33"/>
       <c r="J33"/>
       <c r="K33"/>
@@ -2653,15 +2715,15 @@
       <c r="AP33"/>
       <c r="AQ33"/>
     </row>
-    <row r="34" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1">
+    <row r="34" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="17"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="52"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="53"/>
       <c r="I34"/>
       <c r="J34"/>
       <c r="K34"/>
@@ -2698,7 +2760,7 @@
       <c r="AP34"/>
       <c r="AQ34"/>
     </row>
-    <row r="35" spans="1:43" s="2" customFormat="1" ht="13.9">
+    <row r="35" spans="1:43" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="3"/>
       <c r="C35" s="4"/>
@@ -2743,59 +2805,54 @@
       <c r="AP35"/>
       <c r="AQ35"/>
     </row>
-    <row r="36" spans="1:43" customFormat="1"/>
-    <row r="37" spans="1:43" customFormat="1"/>
-    <row r="38" spans="1:43" customFormat="1"/>
-    <row r="39" spans="1:43" customFormat="1"/>
-    <row r="40" spans="1:43" customFormat="1"/>
-    <row r="41" spans="1:43" customFormat="1"/>
-    <row r="42" spans="1:43" customFormat="1"/>
-    <row r="43" spans="1:43" customFormat="1"/>
-    <row r="44" spans="1:43" customFormat="1"/>
-    <row r="45" spans="1:43" customFormat="1"/>
-    <row r="46" spans="1:43" customFormat="1"/>
-    <row r="47" spans="1:43" customFormat="1"/>
-    <row r="48" spans="1:43" customFormat="1"/>
-    <row r="49" customFormat="1"/>
-    <row r="50" customFormat="1"/>
-    <row r="51" customFormat="1"/>
-    <row r="52" customFormat="1"/>
-    <row r="53" customFormat="1"/>
-    <row r="54" customFormat="1"/>
-    <row r="55" customFormat="1"/>
-    <row r="56" customFormat="1"/>
-    <row r="57" customFormat="1"/>
-    <row r="58" customFormat="1"/>
-    <row r="59" customFormat="1"/>
-    <row r="60" customFormat="1"/>
-    <row r="61" customFormat="1"/>
-    <row r="62" customFormat="1"/>
-    <row r="63" customFormat="1"/>
-    <row r="64" customFormat="1"/>
-    <row r="65" customFormat="1"/>
-    <row r="66" customFormat="1"/>
-    <row r="67" customFormat="1"/>
-    <row r="68" customFormat="1"/>
-    <row r="69" customFormat="1"/>
-    <row r="70" customFormat="1"/>
-    <row r="71" customFormat="1"/>
-    <row r="72" customFormat="1"/>
-    <row r="73" customFormat="1"/>
-    <row r="74" customFormat="1"/>
-    <row r="75" customFormat="1"/>
-    <row r="76" customFormat="1"/>
-    <row r="77" customFormat="1"/>
-    <row r="78" customFormat="1"/>
-    <row r="79" customFormat="1"/>
-    <row r="80" customFormat="1"/>
-    <row r="81" customFormat="1"/>
+    <row r="36" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="49" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="50" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="51" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="52" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="53" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="54" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="55" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="56" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="57" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="58" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="59" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="60" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="61" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="62" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="63" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="64" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="65" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="66" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="67" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="69" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="70" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="71" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="72" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="73" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="74" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="75" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="76" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="77" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="78" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="79" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="80" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="81" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
@@ -2803,6 +2860,11 @@
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:H5"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/public/files/E5.xlsx
+++ b/public/files/E5.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29819"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/816af1763e0e13c3/Documents/GitHub/SIO-portfolio/public/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/78b78f4f98ac343c/Documents/BTS/BTS 24-26/SIO 24-26/Circulaire Examen 2026 SIO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="8_{65C812A6-46C3-4BE6-AE5E-9BDE3627C97F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17685313-E304-47B6-B49C-3120CBF1041A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C846827-BEC0-4A77-B6E9-3DC408DAC278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15375" windowHeight="5213" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tableau de synthèse Épreuve E4" sheetId="1" r:id="rId1"/>
+    <sheet name="Tableau de synthèse Épreuve E5" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tableau de synthèse Épreuve E4'!$A$1:$H$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tableau de synthèse Épreuve E5'!$A$1:$H$35</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,21 +39,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
   <si>
     <t>BTS SERVICES INFORMATIQUES AUX ORGANISATIONS</t>
   </si>
   <si>
-    <t>SESSION 2024</t>
+    <t>SESSION 2026</t>
   </si>
   <si>
     <t xml:space="preserve">Tableau de synthèse des réalisations professionnelles </t>
   </si>
   <si>
-    <t>NOM et prénom : Alexandre Mikhael</t>
-  </si>
-  <si>
-    <t>N° candidat : 100022422AB</t>
+    <t>NOM et prénom : ALEXANDRE Mikhael</t>
+  </si>
+  <si>
+    <t>N° candidat : 02249645844</t>
   </si>
   <si>
     <t>Centre de formation : Campus ERMITAGE</t>
@@ -131,55 +131,56 @@
 ▸Développer son projet professionnel</t>
   </si>
   <si>
-    <t>Réalisation en cours de formation</t>
-  </si>
-  <si>
-    <t>Création du portfolio personel</t>
+    <t xml:space="preserve">Réalisation en cours de formation
+</t>
+  </si>
+  <si>
+    <t>Création et maintenance du portfolio personel</t>
   </si>
   <si>
     <t>Du 02/09/2024 Au 31/07/2026</t>
   </si>
   <si>
+    <t>X</t>
+  </si>
+  <si>
     <t>Création d'un site de rencontre pour joueurs de jeux vidéo</t>
   </si>
   <si>
     <t>Du 19/01/2025 Au 25/09/2025</t>
   </si>
   <si>
+    <t>Projet Collectus</t>
+  </si>
+  <si>
+    <t>Du 13/06/2025 Au 01/07/2025</t>
+  </si>
+  <si>
     <t>Réalisations en milieu professionnel en cours de première année</t>
   </si>
   <si>
-    <t>Mise à jour du site vitrine de Owlcub vers Next.js</t>
+    <t>Mise à jour du site vitrine vers Next.js</t>
   </si>
   <si>
     <t>Du 20/02/2025 Au 20/06/2025</t>
   </si>
   <si>
+    <t>Création d'un jeu de sensibilisation cyber</t>
+  </si>
+  <si>
+    <t>Du 09/04/2025 Au 31/07/2026</t>
+  </si>
+  <si>
+    <t>Gestion de bug sur l'application de l'entreprise</t>
+  </si>
+  <si>
+    <t>Du 17/03/2025 Au 20/08/2025</t>
+  </si>
+  <si>
     <t>Réalisations en milieu professionnel en cours de seconde année</t>
   </si>
   <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Projet Collectus</t>
-  </si>
-  <si>
-    <t>Création d'un jeu vidéo de Sensibilisation Cyber</t>
-  </si>
-  <si>
-    <t>Du 09/04/2025 Au 31/07/2026</t>
-  </si>
-  <si>
-    <t>Du 13/06/2025 Au 01/07/2025</t>
-  </si>
-  <si>
-    <t>Gestion de bug sur la plateforme Owlcub</t>
-  </si>
-  <si>
-    <t>Gestion de bug sur la plateforme Owlcub V2</t>
-  </si>
-  <si>
-    <t>Du 17/03/2025 Au 20/08/2025</t>
+    <t>Maintenance de la V2 de l'application de l'entreprise</t>
   </si>
   <si>
     <t>Du 05/09/2025 Au 17/10/2025</t>
@@ -192,7 +193,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -263,7 +264,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -324,7 +325,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color theme="2" tint="-0.749992370372631"/>
       </left>
       <right style="thin">
@@ -342,7 +343,7 @@
       <left style="thin">
         <color theme="2" tint="-0.749992370372631"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color theme="2" tint="-0.749992370372631"/>
       </right>
       <top style="medium">
@@ -354,6 +355,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </left>
+      <right style="medium">
+        <color theme="2" tint="-0.749992370372631"/>
+      </right>
+      <top style="medium">
+        <color theme="2" tint="-0.749992370372631"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color theme="2" tint="-0.749992370372631"/>
       </left>
@@ -397,6 +413,34 @@
         <color theme="2" tint="-0.749992370372631"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border diagonalDown="1">
+      <left style="medium">
+        <color theme="2" tint="-0.749992370372631"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </right>
+      <top style="medium">
+        <color theme="2" tint="-0.749992370372631"/>
+      </top>
+      <bottom/>
+      <diagonal style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="1">
+      <left style="medium">
+        <color theme="2" tint="-0.749992370372631"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -450,6 +494,32 @@
         <color theme="2" tint="-0.749992370372631"/>
       </top>
       <bottom style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </right>
+      <top style="medium">
+        <color theme="2" tint="-0.749992370372631"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </right>
+      <top/>
+      <bottom style="medium">
         <color theme="2" tint="-0.749992370372631"/>
       </bottom>
       <diagonal/>
@@ -555,69 +625,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </top>
-      <bottom style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </left>
-      <right style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </left>
-      <right style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </left>
-      <right style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </right>
-      <top style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color theme="2" tint="-0.749992370372631"/>
       </left>
@@ -625,145 +632,21 @@
       <top style="thin">
         <color theme="2" tint="-0.749992370372631"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color theme="2" tint="-0.749992370372631"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right style="medium">
         <color theme="2" tint="-0.749992370372631"/>
       </right>
       <top style="thin">
         <color theme="2" tint="-0.749992370372631"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </left>
-      <right style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
       <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalDown="1">
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalDown="1">
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </left>
-      <right style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
+        <color theme="2" tint="-0.749992370372631"/>
       </bottom>
       <diagonal/>
     </border>
@@ -772,7 +655,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -789,23 +672,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -813,125 +684,104 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -956,22 +806,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
+      <xdr:colOff>209550</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
+      <xdr:colOff>342900</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>333375</xdr:rowOff>
+      <xdr:rowOff>323850</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 2">
+        <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39AD1883-FC4A-6AEB-6A00-11EBB2916676}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89DB3629-335F-D115-4BE7-2D735EEC7658}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -979,8 +829,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11858625" y="1695450"/>
-          <a:ext cx="161925" cy="161925"/>
+          <a:off x="11868150" y="1714500"/>
+          <a:ext cx="133350" cy="133350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1314,100 +1164,100 @@
   </sheetPr>
   <dimension ref="A1:AQ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="70.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" style="1" customWidth="1"/>
     <col min="3" max="8" width="18.7109375" style="1" customWidth="1"/>
     <col min="9" max="43" width="11.42578125" customWidth="1"/>
     <col min="44" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:43" ht="39.950000000000003" customHeight="1">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="22"/>
-    </row>
-    <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="H1" s="11"/>
+    </row>
+    <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1">
+      <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-    </row>
-    <row r="3" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+    </row>
+    <row r="3" spans="1:43" ht="39.950000000000003" customHeight="1">
+      <c r="A3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="29" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="30"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="19"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="26" t="s">
+    <row r="4" spans="1:43" ht="39.950000000000003" customHeight="1">
+      <c r="A4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="12" t="s">
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="42" t="s">
+    <row r="5" spans="1:43" ht="39.950000000000003" customHeight="1" thickBot="1">
+      <c r="A5" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="45"/>
-    </row>
-    <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="31" t="s">
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="32"/>
+    </row>
+    <row r="6" spans="1:43" ht="90" customHeight="1">
+      <c r="A6" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="6" t="s">
@@ -1426,25 +1276,25 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:43" s="2" customFormat="1" ht="324.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="32"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="21" t="s">
+    <row r="7" spans="1:43" s="2" customFormat="1" ht="324.95" customHeight="1" thickBot="1">
+      <c r="A7" s="21"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="42" t="s">
         <v>23</v>
       </c>
       <c r="I7"/>
@@ -1483,17 +1333,17 @@
       <c r="AP7"/>
       <c r="AQ7"/>
     </row>
-    <row r="8" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="33" t="s">
+    <row r="8" spans="1:43" s="2" customFormat="1" ht="17.649999999999999">
+      <c r="A8" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="36"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="24"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1530,24 +1380,24 @@
       <c r="AP8"/>
       <c r="AQ8"/>
     </row>
-    <row r="9" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A9" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="47" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="47" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="46"/>
-      <c r="H9" s="48" t="s">
-        <v>33</v>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="37"/>
+      <c r="H9" s="38" t="s">
+        <v>27</v>
       </c>
       <c r="I9"/>
       <c r="J9"/>
@@ -1585,23 +1435,23 @@
       <c r="AP9"/>
       <c r="AQ9"/>
     </row>
-    <row r="10" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="s">
+    <row r="10" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A10" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" s="51"/>
+      <c r="G10" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="38"/>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
@@ -1638,24 +1488,24 @@
       <c r="AP10"/>
       <c r="AQ10"/>
     </row>
-    <row r="11" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="49"/>
-      <c r="H11" s="51" t="s">
-        <v>33</v>
+    <row r="11" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A11" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="37"/>
+      <c r="H11" s="38" t="s">
+        <v>27</v>
       </c>
       <c r="I11"/>
       <c r="J11"/>
@@ -1693,15 +1543,15 @@
       <c r="AP11"/>
       <c r="AQ11"/>
     </row>
-    <row r="12" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="9"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="51"/>
+    <row r="12" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A12" s="33"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="38"/>
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
@@ -1738,15 +1588,15 @@
       <c r="AP12"/>
       <c r="AQ12"/>
     </row>
-    <row r="13" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="9"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="51"/>
+    <row r="13" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A13" s="33"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="38"/>
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13"/>
@@ -1783,15 +1633,15 @@
       <c r="AP13"/>
       <c r="AQ13"/>
     </row>
-    <row r="14" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="51"/>
+    <row r="14" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A14" s="33"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="38"/>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
@@ -1828,15 +1678,15 @@
       <c r="AP14"/>
       <c r="AQ14"/>
     </row>
-    <row r="15" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="9"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="51"/>
+    <row r="15" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A15" s="33"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="38"/>
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15"/>
@@ -1873,15 +1723,15 @@
       <c r="AP15"/>
       <c r="AQ15"/>
     </row>
-    <row r="16" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="9"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="51"/>
+    <row r="16" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A16" s="33"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="38"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
@@ -1918,15 +1768,15 @@
       <c r="AP16"/>
       <c r="AQ16"/>
     </row>
-    <row r="17" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="9"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="51"/>
+    <row r="17" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A17" s="33"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="38"/>
       <c r="I17"/>
       <c r="J17"/>
       <c r="K17"/>
@@ -1963,15 +1813,15 @@
       <c r="AP17"/>
       <c r="AQ17"/>
     </row>
-    <row r="18" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="9"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="51"/>
+    <row r="18" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A18" s="33"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="38"/>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
@@ -2008,17 +1858,17 @@
       <c r="AP18"/>
       <c r="AQ18"/>
     </row>
-    <row r="19" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="39"/>
+    <row r="19" spans="1:43" s="2" customFormat="1" ht="17.649999999999999">
+      <c r="A19" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="27"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -2055,23 +1905,23 @@
       <c r="AP19"/>
       <c r="AQ19"/>
     </row>
-    <row r="20" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="49"/>
-      <c r="D20" s="50" t="s">
+    <row r="20" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A20" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="51"/>
+      <c r="B20" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="38"/>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
@@ -2108,19 +1958,21 @@
       <c r="AP20"/>
       <c r="AQ20"/>
     </row>
-    <row r="21" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
+    <row r="21" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A21" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="51"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="38"/>
       <c r="I21"/>
       <c r="J21"/>
       <c r="K21"/>
@@ -2157,23 +2009,23 @@
       <c r="AP21"/>
       <c r="AQ21"/>
     </row>
-    <row r="22" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="9" t="s">
+    <row r="22" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A22" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="G22" s="49"/>
-      <c r="H22" s="51"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="37"/>
+      <c r="H22" s="38"/>
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22"/>
@@ -2210,15 +2062,15 @@
       <c r="AP22"/>
       <c r="AQ22"/>
     </row>
-    <row r="23" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="9"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="51"/>
+    <row r="23" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A23" s="33"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="38"/>
       <c r="I23"/>
       <c r="J23"/>
       <c r="K23"/>
@@ -2255,15 +2107,15 @@
       <c r="AP23"/>
       <c r="AQ23"/>
     </row>
-    <row r="24" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="9"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="51"/>
+    <row r="24" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A24" s="33"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="38"/>
       <c r="I24"/>
       <c r="J24"/>
       <c r="K24"/>
@@ -2300,15 +2152,15 @@
       <c r="AP24"/>
       <c r="AQ24"/>
     </row>
-    <row r="25" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="9"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="51"/>
+    <row r="25" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A25" s="33"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="38"/>
       <c r="I25"/>
       <c r="J25"/>
       <c r="K25"/>
@@ -2345,15 +2197,15 @@
       <c r="AP25"/>
       <c r="AQ25"/>
     </row>
-    <row r="26" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="9"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="51"/>
+    <row r="26" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A26" s="33"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="38"/>
       <c r="I26"/>
       <c r="J26"/>
       <c r="K26"/>
@@ -2390,17 +2242,17 @@
       <c r="AP26"/>
       <c r="AQ26"/>
     </row>
-    <row r="27" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="39"/>
+    <row r="27" spans="1:43" s="2" customFormat="1" ht="17.649999999999999">
+      <c r="A27" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="27"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2437,23 +2289,23 @@
       <c r="AP27"/>
       <c r="AQ27"/>
     </row>
-    <row r="28" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" s="8" t="s">
+    <row r="28" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A28" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="G28" s="49"/>
-      <c r="H28" s="51"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" s="37"/>
+      <c r="H28" s="38"/>
       <c r="I28"/>
       <c r="J28"/>
       <c r="K28"/>
@@ -2490,15 +2342,15 @@
       <c r="AP28"/>
       <c r="AQ28"/>
     </row>
-    <row r="29" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="9"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="51"/>
+    <row r="29" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A29" s="33"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="38"/>
       <c r="I29"/>
       <c r="J29"/>
       <c r="K29"/>
@@ -2535,15 +2387,15 @@
       <c r="AP29"/>
       <c r="AQ29"/>
     </row>
-    <row r="30" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="9"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="51"/>
+    <row r="30" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A30" s="33"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="38"/>
       <c r="I30"/>
       <c r="J30"/>
       <c r="K30"/>
@@ -2580,15 +2432,15 @@
       <c r="AP30"/>
       <c r="AQ30"/>
     </row>
-    <row r="31" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="9"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="51"/>
+    <row r="31" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A31" s="33"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="38"/>
       <c r="I31"/>
       <c r="J31"/>
       <c r="K31"/>
@@ -2625,15 +2477,15 @@
       <c r="AP31"/>
       <c r="AQ31"/>
     </row>
-    <row r="32" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="9"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="49"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="51"/>
+    <row r="32" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A32" s="33"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="38"/>
       <c r="I32"/>
       <c r="J32"/>
       <c r="K32"/>
@@ -2670,15 +2522,15 @@
       <c r="AP32"/>
       <c r="AQ32"/>
     </row>
-    <row r="33" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="9"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="51"/>
+    <row r="33" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A33" s="33"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="38"/>
       <c r="I33"/>
       <c r="J33"/>
       <c r="K33"/>
@@ -2715,15 +2567,15 @@
       <c r="AP33"/>
       <c r="AQ33"/>
     </row>
-    <row r="34" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="10"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="52"/>
-      <c r="D34" s="52"/>
-      <c r="E34" s="52"/>
-      <c r="F34" s="52"/>
-      <c r="G34" s="52"/>
-      <c r="H34" s="53"/>
+    <row r="34" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A34" s="35"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="40"/>
       <c r="I34"/>
       <c r="J34"/>
       <c r="K34"/>
@@ -2760,7 +2612,7 @@
       <c r="AP34"/>
       <c r="AQ34"/>
     </row>
-    <row r="35" spans="1:43" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:43" s="2" customFormat="1" ht="13.9">
       <c r="A35" s="5"/>
       <c r="B35" s="3"/>
       <c r="C35" s="4"/>
@@ -2805,52 +2657,52 @@
       <c r="AP35"/>
       <c r="AQ35"/>
     </row>
-    <row r="36" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="49" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="50" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="51" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="52" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="53" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="54" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="55" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="56" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="57" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="58" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="59" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="60" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="61" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="62" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="63" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="64" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="65" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="66" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="67" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="68" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="69" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="70" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="71" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="72" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="73" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="74" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="75" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="76" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="77" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="78" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="79" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="80" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="81" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="1:43" customFormat="1"/>
+    <row r="37" spans="1:43" customFormat="1"/>
+    <row r="38" spans="1:43" customFormat="1"/>
+    <row r="39" spans="1:43" customFormat="1"/>
+    <row r="40" spans="1:43" customFormat="1"/>
+    <row r="41" spans="1:43" customFormat="1"/>
+    <row r="42" spans="1:43" customFormat="1"/>
+    <row r="43" spans="1:43" customFormat="1"/>
+    <row r="44" spans="1:43" customFormat="1"/>
+    <row r="45" spans="1:43" customFormat="1"/>
+    <row r="46" spans="1:43" customFormat="1"/>
+    <row r="47" spans="1:43" customFormat="1"/>
+    <row r="48" spans="1:43" customFormat="1"/>
+    <row r="49" customFormat="1"/>
+    <row r="50" customFormat="1"/>
+    <row r="51" customFormat="1"/>
+    <row r="52" customFormat="1"/>
+    <row r="53" customFormat="1"/>
+    <row r="54" customFormat="1"/>
+    <row r="55" customFormat="1"/>
+    <row r="56" customFormat="1"/>
+    <row r="57" customFormat="1"/>
+    <row r="58" customFormat="1"/>
+    <row r="59" customFormat="1"/>
+    <row r="60" customFormat="1"/>
+    <row r="61" customFormat="1"/>
+    <row r="62" customFormat="1"/>
+    <row r="63" customFormat="1"/>
+    <row r="64" customFormat="1"/>
+    <row r="65" customFormat="1"/>
+    <row r="66" customFormat="1"/>
+    <row r="67" customFormat="1"/>
+    <row r="68" customFormat="1"/>
+    <row r="69" customFormat="1"/>
+    <row r="70" customFormat="1"/>
+    <row r="71" customFormat="1"/>
+    <row r="72" customFormat="1"/>
+    <row r="73" customFormat="1"/>
+    <row r="74" customFormat="1"/>
+    <row r="75" customFormat="1"/>
+    <row r="76" customFormat="1"/>
+    <row r="77" customFormat="1"/>
+    <row r="78" customFormat="1"/>
+    <row r="79" customFormat="1"/>
+    <row r="80" customFormat="1"/>
+    <row r="81" customFormat="1"/>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="A6:A7"/>
